--- a/FRED_data.xlsx
+++ b/FRED_data.xlsx
@@ -57824,7 +57824,7 @@
       <c r="L1227" t="inlineStr"/>
       <c r="M1227" t="inlineStr"/>
       <c r="N1227" t="n">
-        <v>19600.5</v>
+        <v>19600.4</v>
       </c>
       <c r="O1227" t="n">
         <v>30.05</v>
@@ -58022,7 +58022,7 @@
       <c r="L1230" t="inlineStr"/>
       <c r="M1230" t="inlineStr"/>
       <c r="N1230" t="n">
-        <v>20431.1</v>
+        <v>20431</v>
       </c>
       <c r="O1230" t="n">
         <v>30.38</v>
@@ -58482,7 +58482,7 @@
       <c r="L1237" t="inlineStr"/>
       <c r="M1237" t="inlineStr"/>
       <c r="N1237" t="n">
-        <v>21549.3</v>
+        <v>21549.4</v>
       </c>
       <c r="O1237" t="n">
         <v>31.42</v>
@@ -58616,7 +58616,7 @@
       <c r="L1239" t="inlineStr"/>
       <c r="M1239" t="inlineStr"/>
       <c r="N1239" t="n">
-        <v>21570.5</v>
+        <v>21570.4</v>
       </c>
       <c r="O1239" t="n">
         <v>31.63</v>
@@ -58680,7 +58680,7 @@
       <c r="L1240" t="inlineStr"/>
       <c r="M1240" t="inlineStr"/>
       <c r="N1240" t="n">
-        <v>21697.6</v>
+        <v>21697.5</v>
       </c>
       <c r="O1240" t="n">
         <v>31.83</v>
@@ -59012,7 +59012,7 @@
       <c r="L1245" t="inlineStr"/>
       <c r="M1245" t="inlineStr"/>
       <c r="N1245" t="n">
-        <v>21659.9</v>
+        <v>21660</v>
       </c>
       <c r="O1245" t="n">
         <v>32.43</v>
@@ -59076,7 +59076,7 @@
       <c r="L1246" t="inlineStr"/>
       <c r="M1246" t="inlineStr"/>
       <c r="N1246" t="n">
-        <v>21525.2</v>
+        <v>21525.3</v>
       </c>
       <c r="O1246" t="n">
         <v>32.53</v>
@@ -59286,7 +59286,7 @@
         <v>109.3</v>
       </c>
       <c r="N1249" t="n">
-        <v>21358.2</v>
+        <v>21358.3</v>
       </c>
       <c r="O1249" t="n">
         <v>32.92</v>
@@ -59358,7 +59358,7 @@
         <v>109.2</v>
       </c>
       <c r="N1250" t="n">
-        <v>21222.3</v>
+        <v>21222.2</v>
       </c>
       <c r="O1250" t="n">
         <v>33.02</v>
@@ -59428,7 +59428,7 @@
         <v>109.3</v>
       </c>
       <c r="N1251" t="n">
-        <v>21100.9</v>
+        <v>21100.7</v>
       </c>
       <c r="O1251" t="n">
         <v>33.11</v>
@@ -59496,7 +59496,7 @@
         <v>103.5</v>
       </c>
       <c r="N1252" t="n">
-        <v>20876.3</v>
+        <v>20876.2</v>
       </c>
       <c r="O1252" t="n">
         <v>33.2</v>
@@ -59568,7 +59568,7 @@
         <v>103</v>
       </c>
       <c r="N1253" t="n">
-        <v>20705.7</v>
+        <v>20705.6</v>
       </c>
       <c r="O1253" t="n">
         <v>33.34</v>
@@ -59638,7 +59638,7 @@
         <v>99.59999999999999</v>
       </c>
       <c r="N1254" t="n">
-        <v>20820.4</v>
+        <v>20820.3</v>
       </c>
       <c r="O1254" t="n">
         <v>33.45</v>
@@ -59706,7 +59706,7 @@
         <v>93.7</v>
       </c>
       <c r="N1255" t="n">
-        <v>20854.4</v>
+        <v>20854.3</v>
       </c>
       <c r="O1255" t="n">
         <v>33.6</v>
@@ -59763,7 +59763,7 @@
         <v>1443</v>
       </c>
       <c r="I1256" t="n">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="J1256" t="n">
         <v>4070000</v>
@@ -59835,7 +59835,7 @@
         <v>1541</v>
       </c>
       <c r="I1257" t="n">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="J1257" t="n">
         <v>4040000</v>
@@ -59903,7 +59903,7 @@
         <v>1471</v>
       </c>
       <c r="I1258" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="J1258" t="n">
         <v>3950000</v>
@@ -59916,7 +59916,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="N1258" t="n">
-        <v>20754.9</v>
+        <v>20755.1</v>
       </c>
       <c r="O1258" t="n">
         <v>33.93</v>
@@ -59962,9 +59962,11 @@
         <v>1372</v>
       </c>
       <c r="H1259" t="n">
-        <v>1487</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
+        <v>1498</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>679</v>
+      </c>
       <c r="J1259" t="n">
         <v>3790000</v>
       </c>
@@ -59973,7 +59975,9 @@
       </c>
       <c r="L1259" t="inlineStr"/>
       <c r="M1259" t="inlineStr"/>
-      <c r="N1259" t="inlineStr"/>
+      <c r="N1259" t="n">
+        <v>20725.6</v>
+      </c>
       <c r="O1259" t="n">
         <v>34</v>
       </c>
